--- a/Data/Processed8.xlsx
+++ b/Data/Processed8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Character</t>
   </si>
@@ -22,6 +22,15 @@
     <t>Dialogue</t>
   </si>
   <si>
+    <t>F1_Score</t>
+  </si>
+  <si>
+    <t>F1_Score_Seed</t>
+  </si>
+  <si>
+    <t>Perplexity</t>
+  </si>
+  <si>
     <t>SentimentScores</t>
   </si>
   <si>
@@ -100,97 +109,91 @@
     <t>I appreciate my colleague's thoughtful argument, but I must respectfully disagree. The legalization of same-sex marriage is not simply a matter of personal freedom and autonomy, but also a matter of social and cultural norms. As a conservative lawyer, I believe that the state should not force its citizens to adopt a social and cultural agenda that goes against their deeply held beliefs and values. The state's obligation to promote equality and justice does not require the redefinition of marriage, but rather the protection of the rights of all citizens, including those who believe that marriage should only be between a man and a woman.</t>
   </si>
   <si>
-    <t>{'beliefs': ('Negative', 0.8760021328926086), 'marriage': ('Neutral', 0.9519177675247192), 'right': ('Negative', 0.7123900055885315), 'religious': ('Negative', 0.8489110469818115), 'samesex': ('Negative', 0.7052122354507446)}</t>
-  </si>
-  <si>
-    <t>{'beliefs': ('Negative', 0.7120967507362366), 'marriage': ('Positive', 0.5261386036872864), 'right': ('Neutral', 0.5034514665603638), 'religious': ('Negative', 0.7459325790405273), 'samesex': ('Neutral', 0.5041033029556274)}</t>
-  </si>
-  <si>
-    <t>{'beliefs': ('Positive', 0.535813570022583), 'marriage': ('Positive', 0.7866273522377014), 'right': ('Positive', 0.8033556342124939), 'religious': ('Positive', 0.6352837681770325), 'samesex': ('Positive', 0.7775025367736816)}</t>
-  </si>
-  <si>
-    <t>{'beliefs': ('Positive', 0.5255354642868042), 'marriage': ('Positive', 0.920297384262085), 'right': ('Positive', 0.9155805110931396), 'religious': ('Positive', 0.4876880943775177), 'samesex': ('Positive', 0.9145416617393494)}</t>
-  </si>
-  <si>
-    <t>{'beliefs': ('Positive', 0.4517500400543213), 'marriage': ('Neutral', 0.5449432730674744), 'right': ('Positive', 0.5778986811637878), 'religious': ('Positive', 0.4637839198112488), 'samesex': ('Positive', 0.34867653250694275)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.8081327080726624), 'state': ('Positive', 0.8043673634529114), 'community': ('Positive', 0.8437976241111755), 'rights': ('Positive', 0.8330193161964417), 'religious': ('Positive', 0.5087112188339233)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.6971048712730408), 'state': ('Positive', 0.748552143573761), 'community': ('Positive', 0.7436721324920654), 'rights': ('Positive', 0.8324889540672302), 'religious': ('Positive', 0.7658342123031616)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.8693859577178955), 'state': ('Positive', 0.8615099191665649), 'community': ('Positive', 0.9001380801200867), 'rights': ('Positive', 0.8849117159843445), 'religious': ('Positive', 0.46374884247779846)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.45221826434135437), 'state': ('Positive', 0.4677055776119232), 'community': ('Positive', 0.5832962989807129), 'rights': ('Positive', 0.6002521514892578), 'religious': ('Negative', 0.7995344996452332)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.8683211803436279), 'state': ('Positive', 0.8551148176193237), 'community': ('Positive', 0.8931698799133301), 'rights': ('Positive', 0.8879361152648926), 'religious': ('Negative', 0.5289379358291626)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.5526425242424011), 'state': ('Neutral', 0.5140007138252258), 'community': ('Neutral', 0.5171591639518738), 'rights': ('Positive', 0.7799078226089478), 'religious': ('Negative', 0.3931957185268402)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.7563033103942871), 'state': ('Positive', 0.5066766738891602), 'community': ('Positive', 0.7984762787818909), 'rights': ('Positive', 0.6800176501274109), 'religious': ('Positive', 0.7146703004837036)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.42893871665000916), 'state': ('Positive', 0.48560449481010437), 'community': ('Positive', 0.5298244953155518), 'rights': ('Positive', 0.6380805969238281), 'religious': ('Negative', 0.48204872012138367)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Negative', 0.4934767186641693), 'state': ('Negative', 0.5450956225395203), 'community': ('Negative', 0.4967520534992218), 'rights': ('Neutral', 0.45036545395851135), 'religious': ('Negative', 0.5303040742874146)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Negative', 0.5077206492424011), 'state': ('Neutral', 0.4421654939651489), 'community': ('Negative', 0.3906850516796112), 'rights': ('Positive', 0.5112236738204956), 'religious': ('Negative', 0.6811122298240662)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.4717119336128235), 'state': ('Negative', 0.49550914764404297), 'community': ('Positive', 0.5272207260131836), 'rights': ('Negative', 0.5564310550689697), 'religious': ('Positive', 0.4946029782295227)}</t>
-  </si>
-  <si>
-    <t>{'identities': ('Neutral', 0.5003136992454529), 'matter': ('Positive', 0.5829372406005859), 'law': ('Positive', 0.5305097699165344), 'beliefs': ('Neutral', 0.46907734870910645), 'citizens': ('Positive', 0.6547367572784424)}</t>
-  </si>
-  <si>
-    <t>{'identities': ('Positive', 0.5785632729530334), 'matter': ('Positive', 0.8061310052871704), 'law': ('Positive', 0.7129645347595215), 'beliefs': ('Positive', 0.5250146389007568), 'citizens': ('Positive', 0.7683409452438354)}</t>
-  </si>
-  <si>
-    <t>{'identities': ('Neutral', 0.38572561740875244), 'matter': ('Positive', 0.41118869185447693), 'law': ('Neutral', 0.45281925797462463), 'beliefs': ('Negative', 0.3803623616695404), 'citizens': ('Positive', 0.5704843401908875)}</t>
-  </si>
-  <si>
-    <t>{'identities': ('Positive', 0.531315267086029), 'matter': ('Positive', 0.8293988704681396), 'law': ('Positive', 0.7633299231529236), 'beliefs': ('Positive', 0.5389780402183533), 'citizens': ('Positive', 0.8439887166023254)}</t>
-  </si>
-  <si>
-    <t>{'identities': ('Positive', 0.42677608132362366), 'matter': ('Neutral', 0.46145099401474), 'law': ('Neutral', 0.6669332981109619), 'beliefs': ('Positive', 0.39708825945854187), 'citizens': ('Neutral', 0.49315232038497925)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Negative', 0.8698123097419739), 'state': ('Negative', 0.9676913022994995), 'community': ('Neutral', 0.7920915484428406), 'rights': ('Neutral', 0.8871809244155884), 'religious': ('Negative', 0.8489110469818115)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.5632789134979248), 'state': ('Neutral', 0.7273848652839661), 'community': ('Positive', 0.7330495715141296), 'rights': ('Positive', 0.612135112285614), 'religious': ('Negative', 0.7459325790405273)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.8423101305961609), 'state': ('Positive', 0.8535265922546387), 'community': ('Positive', 0.8708025217056274), 'rights': ('Positive', 0.9069088697433472), 'religious': ('Positive', 0.6352837681770325)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.894641637802124), 'state': ('Positive', 0.8057888746261597), 'community': ('Positive', 0.9126898050308228), 'rights': ('Positive', 0.9176051020622253), 'religious': ('Positive', 0.4876880943775177)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Negative', 0.4441821873188019), 'state': ('Negative', 0.4791918992996216), 'community': ('Negative', 0.5003224015235901), 'rights': ('Positive', 0.530440628528595), 'religious': ('Positive', 0.4637839198112488)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.49260443449020386), 'state': ('Neutral', 0.5715316534042358), 'community': ('Positive', 0.5692481994628906), 'rights': ('Positive', 0.6716058850288391), 'religious': ('Positive', 0.39937102794647217)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.7876619100570679), 'state': ('Positive', 0.6296147108078003), 'community': ('Positive', 0.8062121868133545), 'rights': ('Positive', 0.79244464635849), 'religious': ('Positive', 0.4286782443523407)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Neutral', 0.38084059953689575), 'state': ('Positive', 0.4154898226261139), 'community': ('Positive', 0.46253567934036255), 'rights': ('Positive', 0.6801339387893677), 'religious': ('Negative', 0.5301628112792969)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Positive', 0.7419059872627258), 'state': ('Positive', 0.8624463081359863), 'community': ('Positive', 0.8119804263114929), 'rights': ('Positive', 0.6962448954582214), 'religious': ('Neutral', 0.39958515763282776)}</t>
-  </si>
-  <si>
-    <t>{'lgbtq': ('Neutral', 0.6639705300331116), 'state': ('Negative', 0.5881836414337158), 'community': ('Neutral', 0.45885810256004333), 'rights': ('Neutral', 0.6971681714057922), 'religious': ('Neutral', 0.3831638693809509)}</t>
+    <t>{'beliefs': ('Negative', 0.8760021328926086), 'identities': ('Neutral', 0.5973551869392395), 'religious': ('Negative', 0.8489110469818115), 'marriage': ('Neutral', 0.9519177675247192), 'citizens': ('Neutral', 0.5485852956771851)}</t>
+  </si>
+  <si>
+    <t>{'beliefs': ('Negative', 0.7120967507362366), 'identities': ('Positive', 0.567800760269165), 'religious': ('Negative', 0.7459325790405273), 'marriage': ('Positive', 0.5261386036872864), 'citizens': ('Positive', 0.6210743188858032)}</t>
+  </si>
+  <si>
+    <t>{'beliefs': ('Positive', 0.535813570022583), 'identities': ('Positive', 0.8653720021247864), 'religious': ('Positive', 0.6352837681770325), 'marriage': ('Positive', 0.7866273522377014), 'citizens': ('Positive', 0.88710618019104)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.8057888746261597), 'lgbtq': ('Positive', 0.894641637802124), 'rights': ('Positive', 0.9176051020622253), 'religious': ('Positive', 0.4876880943775177), 'community': ('Positive', 0.9126898050308228)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Negative', 0.4791918992996216), 'lgbtq': ('Negative', 0.4441821873188019), 'rights': ('Positive', 0.530440628528595), 'religious': ('Positive', 0.4637839198112488), 'community': ('Negative', 0.5003224015235901)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.8043673634529114), 'lgbtq': ('Positive', 0.8081327080726624), 'rights': ('Positive', 0.8330193161964417), 'religious': ('Positive', 0.5087112188339233), 'community': ('Positive', 0.8437976241111755)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.748552143573761), 'lgbtq': ('Positive', 0.6971048712730408), 'rights': ('Positive', 0.8324889540672302), 'religious': ('Positive', 0.7658342123031616), 'community': ('Positive', 0.7436721324920654)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.8615099191665649), 'lgbtq': ('Positive', 0.8693859577178955), 'rights': ('Positive', 0.8849117159843445), 'religious': ('Positive', 0.46374884247779846), 'community': ('Positive', 0.9001380801200867)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.4677055776119232), 'lgbtq': ('Positive', 0.45221826434135437), 'rights': ('Positive', 0.6002521514892578), 'religious': ('Negative', 0.7995344996452332), 'community': ('Positive', 0.5832962989807129)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.8551148176193237), 'lgbtq': ('Positive', 0.8683211803436279), 'rights': ('Positive', 0.8879361152648926), 'religious': ('Negative', 0.5289379358291626), 'community': ('Positive', 0.8931698799133301)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Neutral', 0.5140007138252258), 'lgbtq': ('Positive', 0.5526425242424011), 'rights': ('Positive', 0.7799078226089478), 'religious': ('Negative', 0.3931957185268402), 'community': ('Neutral', 0.5171591639518738)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.5066766738891602), 'lgbtq': ('Positive', 0.7563033103942871), 'rights': ('Positive', 0.6800176501274109), 'religious': ('Positive', 0.7146703004837036), 'community': ('Positive', 0.7984762787818909)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.48560449481010437), 'lgbtq': ('Positive', 0.42893871665000916), 'rights': ('Positive', 0.6380805969238281), 'religious': ('Negative', 0.48204872012138367), 'community': ('Positive', 0.5298244953155518)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Negative', 0.5450956225395203), 'lgbtq': ('Negative', 0.4934767186641693), 'rights': ('Neutral', 0.45036545395851135), 'religious': ('Negative', 0.5303040742874146), 'community': ('Negative', 0.4967520534992218)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Neutral', 0.4421654939651489), 'lgbtq': ('Negative', 0.5077206492424011), 'rights': ('Positive', 0.5112236738204956), 'religious': ('Negative', 0.6811122298240662), 'community': ('Negative', 0.3906850516796112)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Negative', 0.49550914764404297), 'lgbtq': ('Positive', 0.4717119336128235), 'rights': ('Negative', 0.5564310550689697), 'religious': ('Positive', 0.4946029782295227), 'community': ('Positive', 0.5272207260131836)}</t>
+  </si>
+  <si>
+    <t>{'beliefs': ('Neutral', 0.46907734870910645), 'identities': ('Neutral', 0.5003136992454529), 'religious': ('Positive', 0.39937102794647217), 'marriage': ('Neutral', 0.7006760835647583), 'citizens': ('Positive', 0.6547367572784424)}</t>
+  </si>
+  <si>
+    <t>{'beliefs': ('Positive', 0.5250146389007568), 'identities': ('Positive', 0.5785632729530334), 'religious': ('Positive', 0.4286782443523407), 'marriage': ('Positive', 0.7300118207931519), 'citizens': ('Positive', 0.7683409452438354)}</t>
+  </si>
+  <si>
+    <t>{'beliefs': ('Negative', 0.3803623616695404), 'identities': ('Neutral', 0.38572561740875244), 'religious': ('Negative', 0.5301628112792969), 'marriage': ('Neutral', 0.6599426865577698), 'citizens': ('Positive', 0.5704843401908875)}</t>
+  </si>
+  <si>
+    <t>{'beliefs': ('Positive', 0.5389780402183533), 'identities': ('Positive', 0.531315267086029), 'religious': ('Neutral', 0.39958515763282776), 'marriage': ('Positive', 0.8129781484603882), 'citizens': ('Positive', 0.8439887166023254)}</t>
+  </si>
+  <si>
+    <t>{'beliefs': ('Positive', 0.39708825945854187), 'identities': ('Positive', 0.42677608132362366), 'religious': ('Neutral', 0.3831638693809509), 'marriage': ('Neutral', 0.7246013879776001), 'citizens': ('Neutral', 0.49315232038497925)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Negative', 0.9676913022994995), 'lgbtq': ('Negative', 0.8698123097419739), 'rights': ('Neutral', 0.8871809244155884), 'religious': ('Negative', 0.8489110469818115), 'community': ('Neutral', 0.7920915484428406)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Neutral', 0.7273848652839661), 'lgbtq': ('Positive', 0.5632789134979248), 'rights': ('Positive', 0.612135112285614), 'religious': ('Negative', 0.7459325790405273), 'community': ('Positive', 0.7330495715141296)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.8535265922546387), 'lgbtq': ('Positive', 0.8423101305961609), 'rights': ('Positive', 0.9069088697433472), 'religious': ('Positive', 0.6352837681770325), 'community': ('Positive', 0.8708025217056274)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Neutral', 0.5715316534042358), 'lgbtq': ('Positive', 0.49260443449020386), 'rights': ('Positive', 0.6716058850288391), 'religious': ('Positive', 0.39937102794647217), 'community': ('Positive', 0.5692481994628906)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.6296147108078003), 'lgbtq': ('Positive', 0.7876619100570679), 'rights': ('Positive', 0.79244464635849), 'religious': ('Positive', 0.4286782443523407), 'community': ('Positive', 0.8062121868133545)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.4154898226261139), 'lgbtq': ('Neutral', 0.38084059953689575), 'rights': ('Positive', 0.6801339387893677), 'religious': ('Negative', 0.5301628112792969), 'community': ('Positive', 0.46253567934036255)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Positive', 0.8624463081359863), 'lgbtq': ('Positive', 0.7419059872627258), 'rights': ('Positive', 0.6962448954582214), 'religious': ('Neutral', 0.39958515763282776), 'community': ('Positive', 0.8119804263114929)}</t>
+  </si>
+  <si>
+    <t>{'state': ('Negative', 0.5881836414337158), 'lgbtq': ('Neutral', 0.6639705300331116), 'rights': ('Neutral', 0.6971681714057922), 'religious': ('Neutral', 0.3831638693809509), 'community': ('Neutral', 0.45885810256004333)}</t>
   </si>
 </sst>
 </file>
@@ -548,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,362 +570,560 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>27.25415051508223</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0.5730469226837158</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>21.5499045948977</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0.7660894989967346</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>12.74681162619941</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0.8206466436386108</v>
+      </c>
+      <c r="E5">
+        <v>0.7394978404045105</v>
+      </c>
+      <c r="F5">
+        <v>23.44284507633726</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0.7469024658203125</v>
+      </c>
+      <c r="E6">
+        <v>0.7000507712364197</v>
+      </c>
+      <c r="F6">
+        <v>19.28485031582237</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0.7351090312004089</v>
+      </c>
+      <c r="E7">
+        <v>0.6924793124198914</v>
+      </c>
+      <c r="F7">
+        <v>27.51829470843059</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0.7410368919372559</v>
+      </c>
+      <c r="E8">
+        <v>0.691913366317749</v>
+      </c>
+      <c r="F8">
+        <v>19.70355740056857</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>0.7847127914428711</v>
+      </c>
+      <c r="E9">
+        <v>0.6662183403968811</v>
+      </c>
+      <c r="F9">
+        <v>28.49698244410065</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>0.8703631162643433</v>
+      </c>
+      <c r="E10">
+        <v>0.6806743144989014</v>
+      </c>
+      <c r="F10">
+        <v>23.53448555630239</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>0.8983986973762512</v>
+      </c>
+      <c r="E11">
+        <v>0.6672468185424805</v>
+      </c>
+      <c r="F11">
+        <v>22.7132922656367</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0.8619328737258911</v>
+      </c>
+      <c r="E12">
+        <v>0.7269371747970581</v>
+      </c>
+      <c r="F12">
+        <v>24.38178776619129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>0.772508442401886</v>
+      </c>
+      <c r="E13">
+        <v>0.6834403276443481</v>
+      </c>
+      <c r="F13">
+        <v>33.30742083414555</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>0.8014670610427856</v>
+      </c>
+      <c r="E14">
+        <v>0.7458271384239197</v>
+      </c>
+      <c r="F14">
+        <v>20.95335535721364</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0.7775789499282837</v>
+      </c>
+      <c r="E15">
+        <v>0.6780914068222046</v>
+      </c>
+      <c r="F15">
+        <v>27.10151509646861</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>0.8969032168388367</v>
+      </c>
+      <c r="E16">
+        <v>0.7034684419631958</v>
+      </c>
+      <c r="F16">
+        <v>22.02991945191002</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>0.8400884866714478</v>
+      </c>
+      <c r="E17">
+        <v>0.6846231818199158</v>
+      </c>
+      <c r="F17">
+        <v>33.70406380386089</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>0.7225827574729919</v>
+      </c>
+      <c r="E18">
+        <v>0.7463932037353516</v>
+      </c>
+      <c r="F18">
+        <v>16.26384009409312</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>0.8654919266700745</v>
+      </c>
+      <c r="E19">
+        <v>0.6475797891616821</v>
+      </c>
+      <c r="F19">
+        <v>17.3540441101328</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>0.9235318899154663</v>
+      </c>
+      <c r="E20">
+        <v>0.7483827471733093</v>
+      </c>
+      <c r="F20">
+        <v>16.15584839810265</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>0.8444804549217224</v>
+      </c>
+      <c r="E21">
+        <v>0.6678029894828796</v>
+      </c>
+      <c r="F21">
+        <v>17.38673235444142</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>0.7404991388320923</v>
+      </c>
+      <c r="E22">
+        <v>0.6871663331985474</v>
+      </c>
+      <c r="F22">
+        <v>13.95773414209512</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
